--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,22 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>tag 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>tag 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>tag 3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>tag 4</t>
+          <t>tags</t>
         </is>
       </c>
     </row>
@@ -486,83 +471,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>alfonso</t>
+          <t>fe</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>globalnet@gmail.com</t>
+          <t>male@yahoo.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>#Europ</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>#Language</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>#ClimateAction</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>#Volunteering</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1393896015</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>nikol duman</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Diedfornoreason@gmail.com</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>#YouthProjects</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>#Career</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>#Networking</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>#Volunteering</t>
+          <t>['#Europ']</t>
         </is>
       </c>
     </row>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -471,25 +471,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fe</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>male@yahoo.com</t>
+          <t>4833@gmail.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>Realtime</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['#Europ']</t>
+          <t>['#Volunteering', '#YouthProjects', '#Career', '#Education']</t>
         </is>
       </c>
     </row>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>jr</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -479,17 +479,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4833@gmail.com</t>
+          <t>aa@mail.ru</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Realtime</t>
+          <t>20:16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['#Volunteering', '#YouthProjects', '#Career', '#Education']</t>
+          <t>['#Volunteering', '#YouthProjects', '#Career', '#Education', '#Internships']</t>
         </is>
       </c>
     </row>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,30 +466,130 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1393896015</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1271736470</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jr</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>33</v>
+          <t>hsbfj wfih</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>aa@mail.ru</t>
+          <t>hdfbcusab@gmail.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20:16</t>
+          <t>Realtime</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['#Volunteering', '#YouthProjects', '#Career', '#Education', '#Internships']</t>
+          <t>['#PersonalDevelopment', '#Leadership', '#Internships', '#Education']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1393896015</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rrr</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>w@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Realtime</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['#Volunteering', '#Education', '#Career']</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1771253784</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Անահիտ Մկրտչյան</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>anahitmkrtchyan658@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>['#Education', '#Internships', '#Workshops']</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1470163786</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Նարե Զաքարյան</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>zakaryannare13@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>['#Leadership', '#Europ', '#Career']</t>
         </is>
       </c>
     </row>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,126 +468,62 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1271736470</t>
+          <t>1771253784</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hsbfj wfih</t>
+          <t>Անահիտ Մկրտչյան</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>hdfbcusab@gmail.com</t>
+          <t>anahitmkrtchyan658@gmail.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Realtime</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['#PersonalDevelopment', '#Leadership', '#Internships', '#Education']</t>
+          <t>['#Education', '#Internships', '#Workshops']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1393896015</t>
+          <t>1470163786</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rrr</t>
+          <t>Նարե Զաքարյան</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>w@mail.ru</t>
+          <t>zakaryannare13@gmail.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Realtime</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>['#Volunteering', '#Education', '#Career']</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1771253784</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Անահիտ Մկրտչյան</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>anahitmkrtchyan658@gmail.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['#Education', '#Internships', '#Workshops']</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1470163786</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Նարե Զաքարյան</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>zakaryannare13@gmail.com</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>['#Leadership', '#Europ', '#Career']</t>
         </is>
